--- a/APM files/138591414/138591414 IMPORT 9 Attribute Import.xlsx
+++ b/APM files/138591414/138591414 IMPORT 9 Attribute Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/Export Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/138591414/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87623F9E-D400-444A-8808-064A12EDCF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D33B5-5A46-C947-8C21-903C7876B6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8716" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10252" uniqueCount="125">
   <si>
     <t>Hotel ID</t>
   </si>
@@ -390,6 +390,24 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>115150254</t>
+  </si>
+  <si>
+    <t>115150257</t>
+  </si>
+  <si>
+    <t>115150258</t>
+  </si>
+  <si>
+    <t>115150260</t>
+  </si>
+  <si>
+    <t>115150261</t>
+  </si>
+  <si>
+    <t>115150262</t>
   </si>
 </sst>
 </file>
@@ -779,11 +797,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1089"/>
+  <dimension ref="A1:L1283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <pane ySplit="1" topLeftCell="A1079" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1090" sqref="C1090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32365,7 +32383,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="1089" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1089" t="s">
         <v>118</v>
       </c>
@@ -32388,10 +32406,5584 @@
         <v>81</v>
       </c>
       <c r="H1089" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1092">
+        <v>134802983</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1093">
+        <v>134802983</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1094">
+        <v>134802983</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1095">
+        <v>134802983</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1096">
+        <v>134802983</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1097">
+        <v>134802983</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1098">
+        <v>134802983</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1099">
+        <v>134802983</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1100">
+        <v>134802983</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1101">
+        <v>134802983</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1102">
+        <v>134802983</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1103">
+        <v>134802983</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1103" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1103" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1104">
+        <v>134802983</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1104" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1104" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1105">
+        <v>134802983</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1105" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1105" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1105" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1106">
+        <v>134802983</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1106" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1106" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1106" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1107">
+        <v>134802983</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1108">
+        <v>134802983</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1109">
+        <v>134802983</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1110">
+        <v>134802983</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1111">
+        <v>134802983</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1112">
+        <v>134802983</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1113">
+        <v>134802983</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1114">
+        <v>134802983</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1115">
+        <v>134802983</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1116">
+        <v>134802983</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1117">
+        <v>134802983</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1118">
+        <v>134802983</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1119">
+        <v>134802983</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1119" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1119" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1120">
+        <v>134802983</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1120" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1120" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1121">
+        <v>134802983</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1121" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1121" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1121" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1122">
+        <v>134802983</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1122" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1122" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1122" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1123">
+        <v>134802983</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1124">
+        <v>134802983</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1125">
+        <v>134802983</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1126">
+        <v>134802983</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1127">
+        <v>134802983</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1128">
+        <v>134802983</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1129">
+        <v>134802983</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1130">
+        <v>134802983</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1131">
+        <v>134802983</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1131" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1131" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1132">
+        <v>134802983</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1132" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1132" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1133">
+        <v>134802983</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1133" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1133" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1133" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1134">
+        <v>134802983</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1134" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1134" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1134" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1135">
+        <v>134802983</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1135" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1135" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1135" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1135" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1135" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1135" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1136">
+        <v>134802983</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1136" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1136" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1136" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1136" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1136" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1136" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1136" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1137">
+        <v>134802983</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1137" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1137" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1137" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1137" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1137" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1137" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1138">
+        <v>134802983</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1138" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1138" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1138" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1138" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1138" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1138" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1138" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1139">
+        <v>134802983</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1139" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1139" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1139" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1140">
+        <v>134802983</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1140" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1140" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1141">
+        <v>134802983</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1141" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1141" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1141" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1142">
+        <v>134802983</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1142" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1142" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1143">
+        <v>134802983</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1143" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1143" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1143" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1144">
+        <v>134802983</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1144" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1144" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1144" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1145">
+        <v>134802983</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1145" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1145" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1145" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1146">
+        <v>134802983</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1146" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1146" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1147">
+        <v>134802983</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1147" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1147" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1147" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1148">
+        <v>134802983</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1148" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1148" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1148" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1149">
+        <v>134802983</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1149" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1149" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1149" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1150">
+        <v>134802983</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1150" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1150" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1150" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1151">
+        <v>134802983</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1151" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1151" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1151" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1151" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1151" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1151" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1151" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1152">
+        <v>134802983</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1152" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1152" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1152" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1152" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1152" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1152" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1152" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1153">
+        <v>134802983</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1153" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1153" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1153" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1153" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1153" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1153" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1153" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1154">
+        <v>134802983</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1154" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1154" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1154" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1154" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1154" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1154" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1154" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1155">
+        <v>134802983</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1155" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1155" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1155" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1156">
+        <v>134802983</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1156" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1156" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1157">
+        <v>134802983</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1157" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1157" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1157" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1158">
+        <v>134802983</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1158" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1158" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1158" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1159">
+        <v>134802983</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1159" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1159" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1159" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1160">
+        <v>134802983</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1160" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1160" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1161">
+        <v>134802983</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1161" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1161" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1161" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1162">
+        <v>134802983</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1162" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1162" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1163">
+        <v>134802983</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1163" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1163" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1163" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1164">
+        <v>134802983</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1164" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1164" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1164" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1165">
+        <v>134802983</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1165" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1165" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1165" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1166">
+        <v>134802983</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1166" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1166" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1166" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1167">
+        <v>134802983</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1167" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1167" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1167" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1167" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1167" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1167" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1168">
+        <v>134802983</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1168" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1168" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1168" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1168" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1168" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1168" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1169">
+        <v>134802983</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1169" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1169" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1169" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1169" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1169" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1169" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1169" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1170">
+        <v>134802983</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1170" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1170" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1170" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1170" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1170" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1170" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1170" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1171">
+        <v>134802983</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1171" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1171" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1171" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1172">
+        <v>134802983</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1172" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1173">
+        <v>134802983</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1173" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1173" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1173" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1174">
+        <v>134802983</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1174" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1174" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1174" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1175">
+        <v>134802983</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1175" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1175" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1175" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1176">
+        <v>134802983</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1176" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1176" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1176" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1177">
+        <v>134802983</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1177" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1177" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1177" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1178">
+        <v>134802983</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1178" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1178" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1178" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1179">
+        <v>134802983</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1179" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1179" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1180">
+        <v>134802983</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1180" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1180" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1180" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1181">
+        <v>134802983</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1181" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1181" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1182">
+        <v>134802983</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1182" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1182" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1182" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1183">
+        <v>134802983</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1183" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1183" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1183" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1183" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1183" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1183" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1183" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1184">
+        <v>134802983</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1184" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1184" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1184" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1184" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1184" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1184" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1185">
+        <v>134802983</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1185" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1185" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1185" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1185" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1185" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1185" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1185" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1186">
+        <v>134802983</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1186" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1186" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1186" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1186" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1186" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1186" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1186" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1187">
+        <v>134802983</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1187" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1187" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1187" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1188">
+        <v>134802983</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1188" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1188" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1189">
+        <v>134802983</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1189" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1189" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1189" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1190">
+        <v>134802983</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1190" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1190" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1190" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1191">
+        <v>134802983</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1191" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1191" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1191" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1192">
+        <v>134802983</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1192" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1192" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1192" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1193">
+        <v>134802983</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1193" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1193" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1193" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1194">
+        <v>134802983</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1194" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1194" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1194" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1195">
+        <v>134802983</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1195" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1195" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1195" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1196">
+        <v>134802983</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1196" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1196" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1197">
+        <v>134802983</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1197" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1197" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1197" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1198">
+        <v>134802983</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1198" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1198" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1198" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1199">
+        <v>134802983</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1199" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1199" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1199" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1199" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1199" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1199" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1199" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1200">
+        <v>134802983</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1200" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1200" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1200" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1200" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1200" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1200" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1200" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1201">
+        <v>134802983</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1201" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1201" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1201" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1201" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1201" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1201" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1201" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1202">
+        <v>134802983</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1202" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1202" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1202" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1202" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1202" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1202" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1202" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1203">
+        <v>134802983</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1203" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1203" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1203" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1203" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1204">
+        <v>134802983</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1204" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1204" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1205">
+        <v>134802983</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1205" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1205" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1205" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1205" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1206">
+        <v>134802983</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1206" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1206" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1206" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1206" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1207">
+        <v>134802983</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1207" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1207" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1207" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1208">
+        <v>134802983</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1208" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1208" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1208" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1208" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1209">
+        <v>134802983</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1209" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1209" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1209" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1210">
+        <v>134802983</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1210" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1210" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1210" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1210" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1211">
+        <v>134802983</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1211" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1211" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1211" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1211" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1212">
+        <v>134802983</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1212" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1212" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1212" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1212" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1213">
+        <v>134802983</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1213" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1213" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1213" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1213" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1214">
+        <v>134802983</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1214" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1214" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1214" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1214" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1215" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1215">
+        <v>134802983</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1215" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1215" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1215" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1215" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1215" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1215" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1215" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1215" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1216" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1216">
+        <v>134802983</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1216" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1216" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1216" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1216" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1216" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1216" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1216" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1216" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1217" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1217">
+        <v>134802983</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1217" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1217" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1217" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1217" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1217" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1217" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1217" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1217" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1218" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1218">
+        <v>134802983</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1218" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1218" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1218" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1218" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1218" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1218" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1218" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1218" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1219" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1219">
+        <v>134802983</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1219" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1219" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1219" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1219" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1220" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1220">
+        <v>134802983</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1220" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1220" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1221" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1221">
+        <v>134802983</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1221" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1221" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1221" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1222" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1222">
+        <v>134802983</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1222" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1222" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1222" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1222" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1223" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1223">
+        <v>134802983</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1223" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1223" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1223" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1223" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1224" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1224">
+        <v>134802983</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1224" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1224" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1224" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1224" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1225" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1225">
+        <v>134802983</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1225" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1225" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1225" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1225" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1226" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1226">
+        <v>134802983</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1226" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1226" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1226" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1226" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1227" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1227">
+        <v>134802983</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1227" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1227" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1227" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1227" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1228" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1228">
+        <v>134802983</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1228" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1228" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1228" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1228" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1229" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1229">
+        <v>134802983</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1229" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1229" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1229" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1229" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1230" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1230">
+        <v>134802983</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1230" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1230" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1230" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1230" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1231" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1231">
+        <v>134802983</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1231" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1231" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1231" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1232" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1232">
+        <v>134802983</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1232" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1232" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1232" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1232" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1232" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1233" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1233">
+        <v>134802983</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1233" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1233" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1233" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1234" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1234">
+        <v>134802983</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1234" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1234" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1234" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1235" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1235">
+        <v>134802983</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1236" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1236">
+        <v>134802983</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1237" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1237">
+        <v>134802983</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1238" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1238">
+        <v>134802983</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1239" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1239">
+        <v>134802983</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1240" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1240">
+        <v>134802983</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1241" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1241">
+        <v>134802983</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1242" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1242">
+        <v>134802983</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1243" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1243">
+        <v>134802983</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1244" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1244">
+        <v>134802983</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1245" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1245">
+        <v>134802983</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1246" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1246">
+        <v>134802983</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1247" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1247">
+        <v>134802983</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1247" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1247" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1247" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1248" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1248">
+        <v>134802983</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1248" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1248" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1248" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1249" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1249">
+        <v>134802983</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1249" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1249" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1249" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1250" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1250">
+        <v>134802983</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1250" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1250" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1250" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1251" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1251">
+        <v>134802983</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1252" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1252">
+        <v>134802983</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1253" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1253">
+        <v>134802983</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1254" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1254">
+        <v>134802983</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1255" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1255">
+        <v>134802983</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1256" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1256">
+        <v>134802983</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1257" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1257">
+        <v>134802983</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1258" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1258">
+        <v>134802983</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1259" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1259">
+        <v>134802983</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1260" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1260">
+        <v>134802983</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1261" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1261">
+        <v>134802983</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1262" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1262">
+        <v>134802983</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1263" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1263">
+        <v>134802983</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1263" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1263" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1263" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1264" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1264">
+        <v>134802983</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1264" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1264" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1264" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1265" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1265">
+        <v>134802983</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1265" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1265" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1265" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1266" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1266">
+        <v>134802983</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1266" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1266" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1266" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1267" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1267">
+        <v>134802983</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1268" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1268">
+        <v>134802983</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1269" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1269">
+        <v>134802983</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1270" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1270">
+        <v>134802983</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1271" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1271">
+        <v>134802983</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1272" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1272">
+        <v>134802983</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1273" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1273">
+        <v>134802983</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1274" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1274">
+        <v>134802983</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1275" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1275">
+        <v>134802983</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1276" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1276">
+        <v>134802983</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1277" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1277">
+        <v>134802983</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1278" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1278">
+        <v>134802983</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1279" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1279">
+        <v>134802983</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1279" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1279" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1279" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1280" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1280">
+        <v>134802983</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1280" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1280" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1280" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1281" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1281" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1281">
+        <v>134802983</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1281" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1281" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1281" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1282" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1282" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1282">
+        <v>134802983</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1282" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1282" t="s">
+        <v>77</v>
+      </c>
+      <c r="L1282" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1283" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1283" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1283">
+        <v>134802983</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1283" t="s">
         <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{03ef5274-90b8-4b3f-8a76-b4c36a43e904}" enabled="1" method="Standard" siteId="{61e6eeb3-5fd7-4aaa-ae3c-61e8deb09b79}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>